--- a/Reports/Common/LaborTrackingList.xlsx
+++ b/Reports/Common/LaborTrackingList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Labor Date</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Overtime(Hr:Min)</t>
+  </si>
+  <si>
+    <t>Division</t>
   </si>
 </sst>
 </file>
@@ -901,29 +904,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -934,30 +939,33 @@
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
